--- a/BackTest/2019-10-22 BackTest MITH.xlsx
+++ b/BackTest/2019-10-22 BackTest MITH.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>15.09</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>15.09</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>15.09</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>15.09</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>15.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20</v>
+      </c>
       <c r="L17" t="n">
         <v>15.11</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>15.09</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.199999999999998</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>15.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>15.08</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.399999999999997</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>15.08</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.499999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-20</v>
+      </c>
       <c r="L22" t="n">
         <v>15.07</v>
       </c>
@@ -1564,7 +1586,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K26" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>15.07</v>
@@ -1613,7 +1635,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K27" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L27" t="n">
         <v>15.07</v>
@@ -1662,7 +1684,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K28" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>15.08</v>
@@ -1711,7 +1733,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>15.08</v>
@@ -1760,7 +1782,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K30" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>15.09</v>
@@ -1809,7 +1831,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>15.09</v>
@@ -1860,7 +1882,7 @@
         <v>1.699999999999996</v>
       </c>
       <c r="K32" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
         <v>15.11</v>
@@ -1911,7 +1933,7 @@
         <v>1.699999999999996</v>
       </c>
       <c r="K33" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
         <v>15.12</v>
@@ -1962,7 +1984,7 @@
         <v>1.699999999999996</v>
       </c>
       <c r="K34" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L34" t="n">
         <v>15.13</v>
@@ -2166,7 +2188,7 @@
         <v>1.799999999999995</v>
       </c>
       <c r="K38" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>15.13</v>
@@ -2319,7 +2341,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>15.15</v>
@@ -2370,7 +2392,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K42" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>15.15</v>
@@ -2421,7 +2443,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K43" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>15.15</v>
@@ -2472,7 +2494,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>15.15</v>
@@ -2523,7 +2545,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K45" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
         <v>15.15999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>15.16999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K47" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>15.17999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K48" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>15.18999999999999</v>
@@ -2726,9 +2748,7 @@
       <c r="J49" t="n">
         <v>1.899999999999995</v>
       </c>
-      <c r="K49" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>15.19999999999999</v>
       </c>
@@ -2777,9 +2797,7 @@
       <c r="J50" t="n">
         <v>1.899999999999995</v>
       </c>
-      <c r="K50" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>15.19999999999999</v>
       </c>
@@ -2829,7 +2847,7 @@
         <v>1.999999999999996</v>
       </c>
       <c r="K51" t="n">
-        <v>50.00000000000022</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>15.20999999999999</v>
@@ -2880,7 +2898,7 @@
         <v>1.999999999999996</v>
       </c>
       <c r="K52" t="n">
-        <v>33.33333333333373</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>15.22</v>
@@ -2931,7 +2949,7 @@
         <v>2.199999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>-19.99999999999986</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L53" t="n">
         <v>15.21</v>
@@ -2982,7 +3000,7 @@
         <v>2.199999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>-19.99999999999986</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L54" t="n">
         <v>15.2</v>
@@ -3033,7 +3051,7 @@
         <v>2.199999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L55" t="n">
         <v>15.19</v>
@@ -3084,7 +3102,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K56" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>15.19</v>
@@ -3135,7 +3153,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>15.19</v>
@@ -3186,7 +3204,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>33.33333333333333</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L58" t="n">
         <v>15.2</v>
@@ -3237,7 +3255,7 @@
         <v>2.5</v>
       </c>
       <c r="K59" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>15.2</v>
@@ -3288,7 +3306,7 @@
         <v>2.6</v>
       </c>
       <c r="K60" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>15.19</v>
@@ -3339,7 +3357,7 @@
         <v>2.6</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>15.17</v>
@@ -3390,7 +3408,7 @@
         <v>2.6</v>
       </c>
       <c r="K62" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>15.15</v>
@@ -3441,7 +3459,7 @@
         <v>2.6</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>15.15</v>
@@ -3492,7 +3510,7 @@
         <v>2.6</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>15.15</v>
@@ -3543,7 +3561,7 @@
         <v>2.6</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L65" t="n">
         <v>15.15</v>
@@ -3594,7 +3612,7 @@
         <v>2.6</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L66" t="n">
         <v>15.14</v>
@@ -3645,7 +3663,7 @@
         <v>2.6</v>
       </c>
       <c r="K67" t="n">
-        <v>-14.28571428571414</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>15.13</v>
@@ -3747,7 +3765,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>15.11</v>
@@ -3798,7 +3816,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>15.11</v>
@@ -3849,7 +3867,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>-25.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>15.11</v>
@@ -3900,7 +3918,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>-25.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>15.11</v>

--- a/BackTest/2019-10-22 BackTest MITH.xlsx
+++ b/BackTest/2019-10-22 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,2448 +394,1946 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="D2" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>10655.6081</v>
       </c>
       <c r="G2" t="n">
-        <v>14.93999999999999</v>
+        <v>-194072.865</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C3" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="G3" t="n">
-        <v>14.94499999999999</v>
+        <v>-194072.865</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C4" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D4" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E4" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F4" t="n">
-        <v>6352</v>
+        <v>1971.2391</v>
       </c>
       <c r="G4" t="n">
-        <v>14.94999999999999</v>
+        <v>-196044.1041</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F5" t="n">
-        <v>25732.979</v>
+        <v>47903.7609</v>
       </c>
       <c r="G5" t="n">
-        <v>14.95666666666666</v>
+        <v>-196044.1041</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D6" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F6" t="n">
-        <v>21173</v>
+        <v>44888.2511</v>
       </c>
       <c r="G6" t="n">
-        <v>14.96166666666666</v>
+        <v>-151155.853</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>2597.944</v>
       </c>
       <c r="G7" t="n">
-        <v>14.96499999999999</v>
+        <v>-153753.797</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D8" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E8" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>92893</v>
       </c>
       <c r="G8" t="n">
-        <v>14.97333333333333</v>
+        <v>-60860.79699999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F9" t="n">
-        <v>173504.9919</v>
+        <v>3030</v>
       </c>
       <c r="G9" t="n">
-        <v>14.97666666666666</v>
+        <v>-60860.79699999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D10" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F10" t="n">
-        <v>65255.4981</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>14.98333333333333</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C11" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D11" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E11" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3457.6028</v>
+        <v>31362</v>
       </c>
       <c r="G11" t="n">
-        <v>14.98666666666666</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9999999999999982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C12" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D12" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E12" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F12" t="n">
-        <v>73521.4344</v>
+        <v>4810</v>
       </c>
       <c r="G12" t="n">
-        <v>14.99</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C13" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D13" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E13" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F13" t="n">
-        <v>49952.1338</v>
+        <v>5772</v>
       </c>
       <c r="G13" t="n">
-        <v>14.99333333333333</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C14" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D14" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E14" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F14" t="n">
-        <v>71553.6737</v>
+        <v>4810</v>
       </c>
       <c r="G14" t="n">
-        <v>14.99666666666667</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C15" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D15" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E15" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F15" t="n">
-        <v>3643.174</v>
+        <v>5772</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L15" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F16" t="n">
-        <v>2319.004947019867</v>
+        <v>4810</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00333333333333</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L16" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C17" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D17" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E17" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F17" t="n">
-        <v>20461.054</v>
+        <v>3848</v>
       </c>
       <c r="G17" t="n">
-        <v>15.00666666666667</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L17" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>2886</v>
       </c>
       <c r="G18" t="n">
-        <v>15.00833333333333</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C19" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D19" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E19" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="G19" t="n">
-        <v>15.01166666666667</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.199999999999998</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F20" t="n">
-        <v>178.8079</v>
+        <v>3848</v>
       </c>
       <c r="G20" t="n">
-        <v>15.01333333333334</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L20" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C21" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D21" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E21" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>2886</v>
       </c>
       <c r="G21" t="n">
-        <v>15.01666666666667</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.399999999999997</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>15.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>15.095</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F22" t="n">
-        <v>71.1427</v>
+        <v>5772</v>
       </c>
       <c r="G22" t="n">
-        <v>15.01833333333334</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.499999999999996</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>15.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>15.08</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C23" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D23" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E23" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>4810</v>
       </c>
       <c r="G23" t="n">
-        <v>15.02166666666667</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.599999999999996</v>
+        <v>14.9</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>15.07</v>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>15.08</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C24" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D24" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E24" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F24" t="n">
-        <v>2915.2317</v>
+        <v>3848</v>
       </c>
       <c r="G24" t="n">
-        <v>15.02500000000001</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.599999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>15.07</v>
+        <v>14.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>15.08</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C25" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D25" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E25" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F25" t="n">
-        <v>66.2251655629139</v>
+        <v>5772</v>
       </c>
       <c r="G25" t="n">
-        <v>15.02833333333334</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.599999999999996</v>
+        <v>14.9</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>15.07</v>
+        <v>14.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>15.08</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C26" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D26" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E26" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F26" t="n">
-        <v>20937.011</v>
+        <v>3848</v>
       </c>
       <c r="G26" t="n">
-        <v>15.03166666666667</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.599999999999996</v>
+        <v>14.9</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>15.07</v>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>15.085</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C27" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D27" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E27" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F27" t="n">
-        <v>22641.585</v>
+        <v>1924</v>
       </c>
       <c r="G27" t="n">
-        <v>15.03500000000001</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.599999999999996</v>
+        <v>14.9</v>
       </c>
       <c r="K27" t="n">
-        <v>20</v>
-      </c>
-      <c r="L27" t="n">
-        <v>15.07</v>
+        <v>14.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>15.09</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C28" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D28" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E28" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F28" t="n">
-        <v>11797.682</v>
+        <v>67668</v>
       </c>
       <c r="G28" t="n">
-        <v>15.03833333333334</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.599999999999996</v>
+        <v>14.9</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>15.08</v>
+        <v>14.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>15.085</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C29" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D29" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E29" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F29" t="n">
-        <v>351.9536</v>
+        <v>16000</v>
       </c>
       <c r="G29" t="n">
-        <v>15.04166666666668</v>
+        <v>-60848.79699999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.599999999999996</v>
+        <v>14.9</v>
       </c>
       <c r="K29" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>15.08</v>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>15.09</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C30" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E30" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F30" t="n">
-        <v>20504.3748</v>
+        <v>1700.1908</v>
       </c>
       <c r="G30" t="n">
-        <v>15.04500000000001</v>
+        <v>-62548.98779999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.599999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>15.09</v>
+        <v>14.9</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>15.085</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C31" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D31" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E31" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F31" t="n">
-        <v>166873.5068874172</v>
+        <v>3372.1648</v>
       </c>
       <c r="G31" t="n">
-        <v>15.05000000000001</v>
+        <v>-62548.98779999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.599999999999996</v>
+        <v>14.8</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>15.09</v>
+        <v>14.9</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>15.085</v>
-      </c>
-      <c r="N31" t="n">
-        <v>15.09333333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C32" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D32" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E32" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F32" t="n">
-        <v>3010</v>
+        <v>3765.477</v>
       </c>
       <c r="G32" t="n">
-        <v>15.05666666666668</v>
+        <v>-58783.51079999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.699999999999996</v>
+        <v>14.8</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>15.11</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="N32" t="n">
-        <v>15.09000000000001</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C33" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D33" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E33" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F33" t="n">
-        <v>80688.81570000001</v>
+        <v>2530</v>
       </c>
       <c r="G33" t="n">
-        <v>15.06166666666668</v>
+        <v>-61313.51079999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.699999999999996</v>
+        <v>14.9</v>
       </c>
       <c r="K33" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>15.12</v>
+        <v>14.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>15.095</v>
-      </c>
-      <c r="N33" t="n">
-        <v>15.09333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C34" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D34" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E34" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F34" t="n">
-        <v>39339.8355</v>
+        <v>2530</v>
       </c>
       <c r="G34" t="n">
-        <v>15.06833333333335</v>
+        <v>-61313.51079999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.699999999999996</v>
+        <v>14.8</v>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>15.13</v>
+        <v>14.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15.09666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C35" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D35" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E35" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F35" t="n">
-        <v>80487.0937</v>
+        <v>104.6679</v>
       </c>
       <c r="G35" t="n">
-        <v>15.07333333333335</v>
+        <v>-61418.17869999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.799999999999995</v>
+        <v>14.8</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>15.13</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>15.09666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C36" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D36" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E36" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F36" t="n">
-        <v>13043.3771</v>
+        <v>2539.999</v>
       </c>
       <c r="G36" t="n">
-        <v>15.08000000000002</v>
+        <v>-58878.17969999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.799999999999995</v>
+        <v>14.7</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>15.13</v>
+        <v>14.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F37" t="n">
-        <v>53291.019</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>15.08500000000002</v>
+        <v>-58866.17969999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.799999999999995</v>
+        <v>14.8</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>15.13</v>
+        <v>14.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>15.10333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C38" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D38" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E38" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F38" t="n">
-        <v>156623.2784</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>15.08833333333335</v>
+        <v>-58866.17969999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.799999999999995</v>
+        <v>14.9</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>15.13</v>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>15.105</v>
-      </c>
-      <c r="N38" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C39" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D39" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E39" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F39" t="n">
-        <v>38366.9536</v>
+        <v>200</v>
       </c>
       <c r="G39" t="n">
-        <v>15.09166666666669</v>
+        <v>-59066.17969999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.799999999999995</v>
+        <v>14.9</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>15.13</v>
+        <v>14.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>15.105</v>
-      </c>
-      <c r="N39" t="n">
-        <v>15.10333333333334</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C40" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D40" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E40" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F40" t="n">
-        <v>669412.549</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
-        <v>15.09833333333335</v>
+        <v>-59054.17969999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.899999999999995</v>
+        <v>14.8</v>
       </c>
       <c r="K40" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>15.14</v>
+        <v>14.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>15.115</v>
-      </c>
-      <c r="N40" t="n">
-        <v>15.10333333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C41" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D41" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E41" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F41" t="n">
-        <v>32529</v>
+        <v>267664.5636</v>
       </c>
       <c r="G41" t="n">
-        <v>15.10333333333335</v>
+        <v>-59054.17969999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.899999999999995</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>15.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="N41" t="n">
-        <v>15.10666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>11498.381</v>
+        <v>12</v>
       </c>
       <c r="G42" t="n">
-        <v>15.10833333333336</v>
+        <v>-59042.17969999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.899999999999995</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>15.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="N42" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C43" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D43" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E43" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F43" t="n">
-        <v>54800</v>
+        <v>31255.0145</v>
       </c>
       <c r="G43" t="n">
-        <v>15.11166666666669</v>
+        <v>-90297.1942</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.899999999999995</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>15.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>15.135</v>
-      </c>
-      <c r="N43" t="n">
-        <v>15.11333333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="G44" t="n">
-        <v>15.11666666666669</v>
+        <v>-50297.1942</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.899999999999995</v>
-      </c>
-      <c r="K44" t="n">
-        <v>100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>15.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="N44" t="n">
-        <v>15.11666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D45" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E45" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F45" t="n">
-        <v>62831.614</v>
+        <v>121835.7535333333</v>
       </c>
       <c r="G45" t="n">
-        <v>15.12000000000003</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.899999999999995</v>
-      </c>
-      <c r="K45" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" t="n">
-        <v>15.15999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>15.14499999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C46" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D46" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E46" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F46" t="n">
-        <v>4669.527</v>
+        <v>8142</v>
       </c>
       <c r="G46" t="n">
-        <v>15.12166666666669</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.899999999999995</v>
-      </c>
-      <c r="K46" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" t="n">
-        <v>15.16999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>15.14999999999999</v>
-      </c>
-      <c r="N46" t="n">
-        <v>15.12333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C47" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D47" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E47" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F47" t="n">
-        <v>11625</v>
+        <v>37527</v>
       </c>
       <c r="G47" t="n">
-        <v>15.12333333333336</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.899999999999995</v>
-      </c>
-      <c r="K47" t="n">
-        <v>100</v>
-      </c>
-      <c r="L47" t="n">
-        <v>15.17999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>15.15499999999999</v>
-      </c>
-      <c r="N47" t="n">
-        <v>15.12666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C48" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D48" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E48" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F48" t="n">
-        <v>101017.6042</v>
+        <v>87870.16556291391</v>
       </c>
       <c r="G48" t="n">
-        <v>15.12500000000003</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.899999999999995</v>
-      </c>
-      <c r="K48" t="n">
-        <v>100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>15.18999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>15.15999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>15.13333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F49" t="n">
-        <v>46339.1103</v>
+        <v>7127</v>
       </c>
       <c r="G49" t="n">
-        <v>15.12666666666669</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.899999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>15.19999999999999</v>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>15.16499999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>15.13666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C50" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D50" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E50" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F50" t="n">
-        <v>26060.8256</v>
+        <v>103692.5827</v>
       </c>
       <c r="G50" t="n">
-        <v>15.12833333333336</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.899999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>15.19999999999999</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>15.16999999999998</v>
-      </c>
-      <c r="N50" t="n">
-        <v>15.14333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C51" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D51" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E51" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F51" t="n">
-        <v>2147.0588</v>
+        <v>5581</v>
       </c>
       <c r="G51" t="n">
-        <v>15.13166666666669</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2843,50 +2341,35 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1.999999999999996</v>
-      </c>
-      <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>15.20999999999999</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>15.17999999999998</v>
-      </c>
-      <c r="N51" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C52" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D52" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E52" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F52" t="n">
-        <v>10000</v>
+        <v>7737.2159</v>
       </c>
       <c r="G52" t="n">
-        <v>15.13500000000002</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2894,79 +2377,49 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1.999999999999996</v>
-      </c>
-      <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>15.22</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>15.18499999999998</v>
-      </c>
-      <c r="N52" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C53" t="n">
         <v>15.1</v>
       </c>
       <c r="D53" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E53" t="n">
         <v>15.1</v>
       </c>
       <c r="F53" t="n">
-        <v>11700</v>
+        <v>142.6422</v>
       </c>
       <c r="G53" t="n">
-        <v>15.13500000000002</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.199999999999998</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L53" t="n">
-        <v>15.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>15.17999999999999</v>
-      </c>
-      <c r="N53" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2985,141 +2438,96 @@
         <v>15.1</v>
       </c>
       <c r="F54" t="n">
-        <v>50000</v>
+        <v>35955.9337</v>
       </c>
       <c r="G54" t="n">
-        <v>15.13500000000002</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.199999999999998</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L54" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>15.17499999999999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C55" t="n">
         <v>15.1</v>
       </c>
       <c r="D55" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E55" t="n">
         <v>15.1</v>
       </c>
       <c r="F55" t="n">
-        <v>270107.8947</v>
+        <v>6173</v>
       </c>
       <c r="G55" t="n">
-        <v>15.13500000000002</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.199999999999998</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L55" t="n">
-        <v>15.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>15.17499999999999</v>
-      </c>
-      <c r="N55" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C56" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D56" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E56" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F56" t="n">
-        <v>89755.6946</v>
+        <v>2967.231837086093</v>
       </c>
       <c r="G56" t="n">
-        <v>15.13666666666669</v>
+        <v>71538.55933333331</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>15.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>15.17999999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>15.16333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3138,61 +2546,46 @@
         <v>15.2</v>
       </c>
       <c r="F57" t="n">
-        <v>71.14279999999999</v>
+        <v>13157.8947368421</v>
       </c>
       <c r="G57" t="n">
-        <v>15.13833333333336</v>
+        <v>84696.45407017542</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>15.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>15.18499999999998</v>
-      </c>
-      <c r="N57" t="n">
-        <v>15.16666666666666</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C58" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D58" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E58" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F58" t="n">
-        <v>61.7647</v>
+        <v>20681.9078</v>
       </c>
       <c r="G58" t="n">
-        <v>15.14000000000002</v>
+        <v>84696.45407017542</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3200,28 +2593,13 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="K58" t="n">
-        <v>20.00000000000014</v>
-      </c>
-      <c r="L58" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>15.19499999999998</v>
-      </c>
-      <c r="N58" t="n">
-        <v>15.17333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3240,141 +2618,96 @@
         <v>15.2</v>
       </c>
       <c r="F59" t="n">
-        <v>2408.8572</v>
+        <v>213559.4648631579</v>
       </c>
       <c r="G59" t="n">
-        <v>15.14000000000002</v>
+        <v>84696.45407017542</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>15.19999999999998</v>
-      </c>
-      <c r="N59" t="n">
-        <v>15.17666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C60" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D60" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E60" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F60" t="n">
-        <v>19.95</v>
+        <v>13804.8366</v>
       </c>
       <c r="G60" t="n">
-        <v>15.13833333333336</v>
+        <v>98501.29067017541</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L60" t="n">
-        <v>15.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>15.19499999999998</v>
-      </c>
-      <c r="N60" t="n">
-        <v>15.17666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C61" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D61" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E61" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F61" t="n">
-        <v>61509.587</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>15.13500000000002</v>
+        <v>98501.29067017541</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L61" t="n">
-        <v>15.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>15.18999999999999</v>
-      </c>
-      <c r="N61" t="n">
-        <v>15.17666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3393,39 +2726,24 @@
         <v>15.1</v>
       </c>
       <c r="F62" t="n">
-        <v>92659.2095</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>15.13166666666669</v>
+        <v>98301.29067017541</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>15.15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>15.18499999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>15.17333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3444,39 +2762,24 @@
         <v>15.1</v>
       </c>
       <c r="F63" t="n">
-        <v>1753.35</v>
+        <v>6352</v>
       </c>
       <c r="G63" t="n">
-        <v>15.13166666666669</v>
+        <v>98301.29067017541</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>15.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>15.17999999999999</v>
-      </c>
-      <c r="N63" t="n">
-        <v>15.16999999999999</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3492,42 +2795,27 @@
         <v>15.1</v>
       </c>
       <c r="E64" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>2143.549</v>
+        <v>25732.979</v>
       </c>
       <c r="G64" t="n">
-        <v>15.13166666666669</v>
+        <v>98301.29067017541</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>15.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>15.17499999999999</v>
-      </c>
-      <c r="N64" t="n">
-        <v>15.16666666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3537,99 +2825,69 @@
         <v>15.1</v>
       </c>
       <c r="C65" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
         <v>15.1</v>
       </c>
       <c r="E65" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F65" t="n">
-        <v>534.1975</v>
+        <v>21173</v>
       </c>
       <c r="G65" t="n">
-        <v>15.13166666666669</v>
+        <v>77128.29067017541</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L65" t="n">
-        <v>15.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>15.16999999999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>15.16666666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>89531.3054</v>
+        <v>4000</v>
       </c>
       <c r="G66" t="n">
-        <v>15.13333333333336</v>
+        <v>77128.29067017541</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L66" t="n">
-        <v>15.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>15.165</v>
-      </c>
-      <c r="N66" t="n">
-        <v>15.16666666666666</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3639,150 +2897,105 @@
         <v>15.1</v>
       </c>
       <c r="C67" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D67" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E67" t="n">
         <v>15.1</v>
       </c>
       <c r="F67" t="n">
-        <v>2011.933</v>
+        <v>3000</v>
       </c>
       <c r="G67" t="n">
-        <v>15.13500000000003</v>
+        <v>80128.29067017541</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>15.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="N67" t="n">
-        <v>15.16666666666666</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>13605.4276</v>
+        <v>173504.9919</v>
       </c>
       <c r="G68" t="n">
-        <v>15.13500000000003</v>
+        <v>-93376.70122982458</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.699999999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>15.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="N68" t="n">
-        <v>15.16999999999999</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C69" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D69" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E69" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>26700</v>
+        <v>65255.4981</v>
       </c>
       <c r="G69" t="n">
-        <v>15.13666666666669</v>
+        <v>-28121.20312982459</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>15.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>15.155</v>
-      </c>
-      <c r="N69" t="n">
-        <v>15.16999999999999</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3801,39 +3014,24 @@
         <v>15.1</v>
       </c>
       <c r="F70" t="n">
-        <v>39280.7739</v>
+        <v>3457.6028</v>
       </c>
       <c r="G70" t="n">
-        <v>15.13500000000003</v>
+        <v>-31578.80592982459</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>15.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="N70" t="n">
-        <v>15.16666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3852,90 +3050,60 @@
         <v>15.1</v>
       </c>
       <c r="F71" t="n">
-        <v>10628.969</v>
+        <v>73521.4344</v>
       </c>
       <c r="G71" t="n">
-        <v>15.13500000000003</v>
+        <v>-31578.80592982459</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>15.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="N71" t="n">
-        <v>15.16333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C72" t="n">
         <v>15.1</v>
       </c>
       <c r="D72" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E72" t="n">
         <v>15.1</v>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>49952.1338</v>
       </c>
       <c r="G72" t="n">
-        <v>15.13500000000003</v>
+        <v>-31578.80592982459</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>15.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="N72" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3954,39 +3122,24 @@
         <v>15.1</v>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>71553.6737</v>
       </c>
       <c r="G73" t="n">
-        <v>15.13500000000003</v>
+        <v>-31578.80592982459</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>15.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="N73" t="n">
-        <v>15.15666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4005,39 +3158,24 @@
         <v>15.1</v>
       </c>
       <c r="F74" t="n">
-        <v>101224.2155</v>
+        <v>3643.174</v>
       </c>
       <c r="G74" t="n">
-        <v>15.13500000000003</v>
+        <v>-31578.80592982459</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="N74" t="n">
-        <v>15.15333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4056,39 +3194,1752 @@
         <v>15.1</v>
       </c>
       <c r="F75" t="n">
-        <v>1523.6355</v>
+        <v>2319.004947019867</v>
       </c>
       <c r="G75" t="n">
-        <v>15.13500000000003</v>
+        <v>-31578.80592982459</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2.799999999999999</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>15.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="N75" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20461.054</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-31578.80592982459</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15</v>
+      </c>
+      <c r="C77" t="n">
+        <v>15</v>
+      </c>
+      <c r="D77" t="n">
+        <v>15</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-31678.80592982459</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-31578.80592982459</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>15</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15</v>
+      </c>
+      <c r="D79" t="n">
+        <v>15</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15</v>
+      </c>
+      <c r="F79" t="n">
+        <v>178.8079</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-31757.61382982459</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-31745.61382982459</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>15</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="F81" t="n">
+        <v>71.1427</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-31816.75652982459</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2915.2317</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>66.2251655629139</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20937.011</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>22641.585</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11797.682</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>351.9536</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>20504.3748</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>166873.5068874172</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-31805.75652982459</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3010</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-28795.75652982459</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>80688.81570000001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-28795.75652982459</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>39339.8355</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-28795.75652982459</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>80487.0937</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-109282.8502298246</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>13043.3771</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-109282.8502298246</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>53291.019</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-109282.8502298246</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>156623.2784</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-109282.8502298246</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>38366.9536</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-109282.8502298246</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>669412.549</v>
+      </c>
+      <c r="G99" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>32529</v>
+      </c>
+      <c r="G100" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11498.381</v>
+      </c>
+      <c r="G101" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>54800</v>
+      </c>
+      <c r="G102" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>62831.614</v>
+      </c>
+      <c r="G104" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4669.527</v>
+      </c>
+      <c r="G105" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>11625</v>
+      </c>
+      <c r="G106" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>101017.6042</v>
+      </c>
+      <c r="G107" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>46339.1103</v>
+      </c>
+      <c r="G108" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>26060.8256</v>
+      </c>
+      <c r="G109" t="n">
+        <v>560129.6987701755</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2147.0588</v>
+      </c>
+      <c r="G110" t="n">
+        <v>562276.7575701755</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>562276.7575701755</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11700</v>
+      </c>
+      <c r="G112" t="n">
+        <v>550576.7575701755</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>550576.7575701755</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>270107.8947</v>
+      </c>
+      <c r="G114" t="n">
+        <v>550576.7575701755</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>89755.6946</v>
+      </c>
+      <c r="G115" t="n">
+        <v>640332.4521701755</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>71.14279999999999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>640332.4521701755</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>61.7647</v>
+      </c>
+      <c r="G117" t="n">
+        <v>640394.2168701756</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2408.8572</v>
+      </c>
+      <c r="G118" t="n">
+        <v>637985.3596701756</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="G119" t="n">
+        <v>637965.4096701756</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>61509.587</v>
+      </c>
+      <c r="G120" t="n">
+        <v>637965.4096701756</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>92659.2095</v>
+      </c>
+      <c r="G121" t="n">
+        <v>637965.4096701756</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1753.35</v>
+      </c>
+      <c r="G122" t="n">
+        <v>637965.4096701756</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2143.549</v>
+      </c>
+      <c r="G123" t="n">
+        <v>637965.4096701756</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-22 BackTest MITH.xlsx
+++ b/BackTest/2019-10-22 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,22 +1144,15 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1254,660 +1179,606 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5772</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-60848.79699999999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3848</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-60848.79699999999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5772</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1924</v>
+      </c>
+      <c r="G27" t="n">
         <v>-60848.79699999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3848</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>67668</v>
+      </c>
+      <c r="G28" t="n">
         <v>-60848.79699999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1924</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G29" t="n">
         <v>-60848.79699999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>67668</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1700.1908</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-62548.98779999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1700.1908</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3372.1648</v>
+      </c>
+      <c r="G31" t="n">
         <v>-62548.98779999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3765.477</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-58783.51079999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3372.1648</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-62548.98779999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2530</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-61313.51079999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C32" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D32" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E32" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3765.477</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-58783.51079999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K32" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F34" t="n">
         <v>2530</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>-61313.51079999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>104.6679</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-61418.17869999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2530</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-61313.51079999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2539.999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-58878.17969999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C35" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D35" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E35" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>104.6679</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-61418.17869999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2539.999</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-58878.17969999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-58866.17969999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-58866.17969999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>12</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-58866.17969999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>200</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-59066.17969999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C38" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D38" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E38" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F38" t="n">
-        <v>100</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-58866.17969999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K38" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F39" t="n">
-        <v>200</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-59066.17969999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K39" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1932,26 +1803,15 @@
         <v>-59054.17969999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1978,16 +1838,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2014,16 +1871,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2050,16 +1904,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2086,16 +1937,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2122,16 +1970,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2158,16 +2003,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2194,16 +2036,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2230,16 +2069,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2266,16 +2102,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2302,16 +2135,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2338,16 +2168,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2374,16 +2201,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2410,16 +2234,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2446,16 +2267,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2482,16 +2300,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2518,16 +2333,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2554,16 +2366,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2590,16 +2399,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2626,16 +2432,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2660,18 +2463,15 @@
         <v>98501.29067017541</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2696,18 +2496,15 @@
         <v>98501.29067017541</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2732,18 +2529,15 @@
         <v>98301.29067017541</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2768,18 +2562,15 @@
         <v>98301.29067017541</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2804,18 +2595,15 @@
         <v>98301.29067017541</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2842,16 +2630,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2878,16 +2663,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2914,16 +2696,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2950,16 +2729,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2986,16 +2762,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3022,16 +2795,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3058,16 +2828,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3094,16 +2861,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3130,16 +2894,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3166,16 +2927,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3202,16 +2960,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3238,16 +2993,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3274,16 +3026,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3308,18 +3057,15 @@
         <v>-31578.80592982459</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3346,16 +3092,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3382,16 +3125,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3418,16 +3158,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3454,16 +3191,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3490,16 +3224,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3526,16 +3257,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3562,16 +3290,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3598,16 +3323,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3634,16 +3356,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3668,18 +3387,15 @@
         <v>-31805.75652982459</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3704,18 +3420,15 @@
         <v>-31805.75652982459</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3740,18 +3453,15 @@
         <v>-31805.75652982459</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3778,16 +3488,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3812,18 +3519,15 @@
         <v>-28795.75652982459</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3850,16 +3554,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3886,16 +3587,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3922,16 +3620,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3958,16 +3653,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3994,16 +3686,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4030,16 +3719,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4066,16 +3752,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4100,18 +3783,15 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4136,18 +3816,15 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4172,18 +3849,15 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4210,16 +3884,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4244,18 +3915,15 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4282,16 +3950,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4318,16 +3983,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4354,16 +4016,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4390,16 +4049,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4424,18 +4080,15 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4462,16 +4115,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4498,16 +4148,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4534,16 +4181,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4570,16 +4214,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4606,16 +4247,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4642,16 +4280,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4678,16 +4313,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4714,16 +4346,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4750,16 +4379,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4786,16 +4412,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4822,16 +4445,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4858,16 +4478,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4894,16 +4511,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4930,18 +4544,15 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest MITH.xlsx
+++ b/BackTest/2019-10-22 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,10 +550,14 @@
         <v>-196044.1041</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>-151155.853</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +631,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,10 +667,14 @@
         <v>-60860.79699999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -685,8 +707,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +746,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -1210,7 +1244,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>14.9</v>
@@ -1247,7 +1281,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>14.9</v>
@@ -1288,7 +1322,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>14.9</v>
@@ -1329,7 +1363,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>14.9</v>
@@ -1366,7 +1400,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>14.9</v>
@@ -1407,7 +1441,7 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>14.9</v>
@@ -1448,7 +1482,7 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>14.8</v>
@@ -1485,7 +1519,7 @@
         <v>-58783.51079999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>14.8</v>
@@ -1526,7 +1560,7 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>14.9</v>
@@ -1567,7 +1601,7 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>14.8</v>
@@ -1604,7 +1638,7 @@
         <v>-61418.17869999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>14.8</v>
@@ -1645,7 +1679,7 @@
         <v>-58878.17969999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>14.7</v>
@@ -1686,7 +1720,7 @@
         <v>-58866.17969999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>14.8</v>
@@ -1723,7 +1757,7 @@
         <v>-58866.17969999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>14.9</v>
@@ -1764,9 +1798,11 @@
         <v>-59066.17969999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J39" t="n">
         <v>14.8</v>
       </c>
@@ -1803,10 +1839,14 @@
         <v>-59054.17969999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1836,11 +1876,19 @@
         <v>-59054.17969999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1869,11 +1917,19 @@
         <v>-59042.17969999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2463,7 +2519,7 @@
         <v>98501.29067017541</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2496,7 +2552,7 @@
         <v>98501.29067017541</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2529,7 +2585,7 @@
         <v>98301.29067017541</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2562,7 +2618,7 @@
         <v>98301.29067017541</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2595,7 +2651,7 @@
         <v>98301.29067017541</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3057,7 +3113,7 @@
         <v>-31578.80592982459</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3387,7 +3443,7 @@
         <v>-31805.75652982459</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3420,7 +3476,7 @@
         <v>-31805.75652982459</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3453,7 +3509,7 @@
         <v>-31805.75652982459</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3519,7 +3575,7 @@
         <v>-28795.75652982459</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3783,7 +3839,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3816,7 +3872,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3849,7 +3905,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3915,7 +3971,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3948,7 +4004,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3981,7 +4037,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4014,7 +4070,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4047,7 +4103,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4080,7 +4136,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4113,7 +4169,7 @@
         <v>562276.7575701755</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4146,7 +4202,7 @@
         <v>562276.7575701755</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4179,7 +4235,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4278,7 +4334,7 @@
         <v>640332.4521701755</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4311,7 +4367,7 @@
         <v>640332.4521701755</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4344,7 +4400,7 @@
         <v>640394.2168701756</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4377,7 +4433,7 @@
         <v>637985.3596701756</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4410,7 +4466,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4443,7 +4499,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4476,7 +4532,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4509,7 +4565,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4542,7 +4598,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4553,6 +4609,6 @@
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest MITH.xlsx
+++ b/BackTest/2019-10-22 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-194072.865</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,10 +517,14 @@
         <v>-196044.1041</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -556,9 +560,13 @@
         <v>14.7</v>
       </c>
       <c r="J5" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,7 +601,7 @@
         <v>14.7</v>
       </c>
       <c r="J6" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -631,14 +639,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -1244,14 +1246,10 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>14.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1281,19 +1279,11 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1322,19 +1312,11 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1363,14 +1345,10 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>14.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1400,19 +1378,11 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1441,19 +1411,11 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1482,14 +1444,10 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>14.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1527,11 +1485,7 @@
       <c r="J32" t="n">
         <v>14.8</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1560,11 +1514,9 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>14.8</v>
       </c>
@@ -1601,15 +1553,17 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>14.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>14.8</v>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1638,97 +1592,89 @@
         <v>-61418.17869999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2539.999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-58878.17969999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-58866.17969999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2539.999</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-58878.17969999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>12</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-58866.17969999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1757,13 +1703,11 @@
         <v>-58866.17969999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1798,19 +1742,11 @@
         <v>-59066.17969999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1876,11 +1812,9 @@
         <v>-59054.17969999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>14.8</v>
       </c>
@@ -1917,11 +1851,9 @@
         <v>-59042.17969999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>14.8</v>
       </c>
@@ -1958,7 +1890,7 @@
         <v>-90297.1942</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1991,7 +1923,7 @@
         <v>-50297.1942</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2024,7 +1956,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2057,7 +1989,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2090,7 +2022,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2123,7 +2055,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -4004,7 +3936,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4037,7 +3969,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4070,7 +4002,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4103,7 +4035,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4136,7 +4068,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4169,7 +4101,7 @@
         <v>562276.7575701755</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4202,7 +4134,7 @@
         <v>562276.7575701755</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4235,7 +4167,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4334,7 +4266,7 @@
         <v>640332.4521701755</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4367,7 +4299,7 @@
         <v>640332.4521701755</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4400,7 +4332,7 @@
         <v>640394.2168701756</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4433,7 +4365,7 @@
         <v>637985.3596701756</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4466,7 +4398,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4499,7 +4431,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4532,7 +4464,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4565,7 +4497,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4598,7 +4530,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4609,6 +4541,6 @@
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest MITH.xlsx
+++ b/BackTest/2019-10-22 BackTest MITH.xlsx
@@ -451,7 +451,7 @@
         <v>-194072.865</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,14 +517,10 @@
         <v>-196044.1041</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>-196044.1041</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>-151155.853</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -669,14 +649,10 @@
         <v>-60860.79699999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -709,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -748,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -1114,10 +1078,14 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1147,11 +1115,19 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1180,11 +1156,19 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1213,10 +1197,14 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1246,11 +1234,19 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1279,11 +1275,19 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1312,10 +1316,14 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1345,11 +1353,19 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1394,19 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1411,10 +1435,14 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1444,11 +1472,19 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1483,9 +1519,13 @@
         <v>14.8</v>
       </c>
       <c r="J32" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>14.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1514,17 +1554,15 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1553,11 +1591,13 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J34" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1592,11 +1632,19 @@
         <v>-61418.17869999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1703,7 +1751,7 @@
         <v>-58866.17969999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
@@ -1742,7 +1790,7 @@
         <v>-59066.17969999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1812,7 +1860,7 @@
         <v>-59054.17969999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -1851,7 +1899,7 @@
         <v>-59042.17969999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
@@ -1890,7 +1938,7 @@
         <v>-90297.1942</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1923,7 +1971,7 @@
         <v>-50297.1942</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1956,7 +2004,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1989,7 +2037,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2022,7 +2070,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2055,7 +2103,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2517,7 +2565,7 @@
         <v>98301.29067017541</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -4134,7 +4182,7 @@
         <v>562276.7575701755</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4167,7 +4215,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4200,7 +4248,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4233,7 +4281,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4266,7 +4314,7 @@
         <v>640332.4521701755</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4365,7 +4413,7 @@
         <v>637985.3596701756</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4398,7 +4446,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4431,7 +4479,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4464,7 +4512,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4497,7 +4545,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4530,7 +4578,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest MITH.xlsx
+++ b/BackTest/2019-10-22 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10655.6081</v>
       </c>
       <c r="G2" t="n">
-        <v>-194072.865</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>57</v>
       </c>
       <c r="G3" t="n">
-        <v>-194072.865</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>1971.2391</v>
       </c>
       <c r="G4" t="n">
-        <v>-196044.1041</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,23 @@
         <v>47903.7609</v>
       </c>
       <c r="G5" t="n">
-        <v>-196044.1041</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,23 @@
         <v>44888.2511</v>
       </c>
       <c r="G6" t="n">
-        <v>-151155.853</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +613,19 @@
         <v>2597.944</v>
       </c>
       <c r="G7" t="n">
-        <v>-153753.797</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +647,23 @@
         <v>92893</v>
       </c>
       <c r="G8" t="n">
-        <v>-60860.79699999999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +685,23 @@
         <v>3030</v>
       </c>
       <c r="G9" t="n">
-        <v>-60860.79699999999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +723,21 @@
         <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +759,21 @@
         <v>31362</v>
       </c>
       <c r="G11" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +795,21 @@
         <v>4810</v>
       </c>
       <c r="G12" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +831,21 @@
         <v>5772</v>
       </c>
       <c r="G13" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +867,21 @@
         <v>4810</v>
       </c>
       <c r="G14" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +903,21 @@
         <v>5772</v>
       </c>
       <c r="G15" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +939,21 @@
         <v>4810</v>
       </c>
       <c r="G16" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +975,21 @@
         <v>3848</v>
       </c>
       <c r="G17" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1011,21 @@
         <v>2886</v>
       </c>
       <c r="G18" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1047,21 @@
         <v>1924</v>
       </c>
       <c r="G19" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1083,21 @@
         <v>3848</v>
       </c>
       <c r="G20" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,22 +1119,21 @@
         <v>2886</v>
       </c>
       <c r="G21" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1112,26 +1155,21 @@
         <v>5772</v>
       </c>
       <c r="G22" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1153,26 +1191,21 @@
         <v>4810</v>
       </c>
       <c r="G23" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1194,22 +1227,21 @@
         <v>3848</v>
       </c>
       <c r="G24" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1231,26 +1263,21 @@
         <v>5772</v>
       </c>
       <c r="G25" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1272,26 +1299,21 @@
         <v>3848</v>
       </c>
       <c r="G26" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1313,22 +1335,21 @@
         <v>1924</v>
       </c>
       <c r="G27" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1350,26 +1371,21 @@
         <v>67668</v>
       </c>
       <c r="G28" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1391,26 +1407,21 @@
         <v>16000</v>
       </c>
       <c r="G29" t="n">
-        <v>-60848.79699999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1432,22 +1443,21 @@
         <v>1700.1908</v>
       </c>
       <c r="G30" t="n">
-        <v>-62548.98779999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1469,26 +1479,23 @@
         <v>3372.1648</v>
       </c>
       <c r="G31" t="n">
-        <v>-62548.98779999999</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="I31" t="n">
         <v>14.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1510,26 +1517,23 @@
         <v>3765.477</v>
       </c>
       <c r="G32" t="n">
-        <v>-58783.51079999999</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="I32" t="n">
         <v>14.8</v>
       </c>
-      <c r="J32" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1551,22 +1555,23 @@
         <v>2530</v>
       </c>
       <c r="G33" t="n">
-        <v>-61313.51079999999</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>14.9</v>
       </c>
       <c r="I33" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1588,26 +1593,23 @@
         <v>2530</v>
       </c>
       <c r="G34" t="n">
-        <v>-61313.51079999999</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="I34" t="n">
         <v>14.8</v>
       </c>
-      <c r="J34" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1629,26 +1631,23 @@
         <v>104.6679</v>
       </c>
       <c r="G35" t="n">
-        <v>-61418.17869999999</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="I35" t="n">
         <v>14.8</v>
       </c>
-      <c r="J35" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1670,22 +1669,23 @@
         <v>2539.999</v>
       </c>
       <c r="G36" t="n">
-        <v>-58878.17969999999</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="I36" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1707,26 +1707,23 @@
         <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>-58866.17969999999</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="I37" t="n">
         <v>14.8</v>
       </c>
-      <c r="J37" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1748,24 +1745,23 @@
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>-58866.17969999999</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>14.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1787,18 +1783,23 @@
         <v>200</v>
       </c>
       <c r="G39" t="n">
-        <v>-59066.17969999999</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>14.9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1820,22 +1821,23 @@
         <v>12</v>
       </c>
       <c r="G40" t="n">
-        <v>-59054.17969999999</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="I40" t="n">
         <v>14.8</v>
       </c>
-      <c r="J40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1857,24 +1859,21 @@
         <v>267664.5636</v>
       </c>
       <c r="G41" t="n">
-        <v>-59054.17969999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,24 +1895,21 @@
         <v>12</v>
       </c>
       <c r="G42" t="n">
-        <v>-59042.17969999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1935,18 +1931,21 @@
         <v>31255.0145</v>
       </c>
       <c r="G43" t="n">
-        <v>-90297.1942</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1967,21 @@
         <v>40000</v>
       </c>
       <c r="G44" t="n">
-        <v>-50297.1942</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2001,18 +2003,21 @@
         <v>121835.7535333333</v>
       </c>
       <c r="G45" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2034,18 +2039,21 @@
         <v>8142</v>
       </c>
       <c r="G46" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2067,18 +2075,21 @@
         <v>37527</v>
       </c>
       <c r="G47" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2100,18 +2111,21 @@
         <v>87870.16556291391</v>
       </c>
       <c r="G48" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2133,18 +2147,21 @@
         <v>7127</v>
       </c>
       <c r="G49" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2166,18 +2183,21 @@
         <v>103692.5827</v>
       </c>
       <c r="G50" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2199,18 +2219,21 @@
         <v>5581</v>
       </c>
       <c r="G51" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2232,18 +2255,21 @@
         <v>7737.2159</v>
       </c>
       <c r="G52" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2265,18 +2291,21 @@
         <v>142.6422</v>
       </c>
       <c r="G53" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2298,18 +2327,21 @@
         <v>35955.9337</v>
       </c>
       <c r="G54" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2331,18 +2363,21 @@
         <v>6173</v>
       </c>
       <c r="G55" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2364,18 +2399,21 @@
         <v>2967.231837086093</v>
       </c>
       <c r="G56" t="n">
-        <v>71538.55933333331</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2397,18 +2435,21 @@
         <v>13157.8947368421</v>
       </c>
       <c r="G57" t="n">
-        <v>84696.45407017542</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2430,18 +2471,21 @@
         <v>20681.9078</v>
       </c>
       <c r="G58" t="n">
-        <v>84696.45407017542</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2463,18 +2507,21 @@
         <v>213559.4648631579</v>
       </c>
       <c r="G59" t="n">
-        <v>84696.45407017542</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2496,18 +2543,21 @@
         <v>13804.8366</v>
       </c>
       <c r="G60" t="n">
-        <v>98501.29067017541</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1.028783783783784</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2529,18 +2579,15 @@
         <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>98501.29067017541</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,18 +2609,15 @@
         <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>98301.29067017541</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2595,18 +2639,15 @@
         <v>6352</v>
       </c>
       <c r="G63" t="n">
-        <v>98301.29067017541</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2628,18 +2669,15 @@
         <v>25732.979</v>
       </c>
       <c r="G64" t="n">
-        <v>98301.29067017541</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2661,18 +2699,15 @@
         <v>21173</v>
       </c>
       <c r="G65" t="n">
-        <v>77128.29067017541</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2694,18 +2729,15 @@
         <v>4000</v>
       </c>
       <c r="G66" t="n">
-        <v>77128.29067017541</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2727,18 +2759,15 @@
         <v>3000</v>
       </c>
       <c r="G67" t="n">
-        <v>80128.29067017541</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2760,18 +2789,15 @@
         <v>173504.9919</v>
       </c>
       <c r="G68" t="n">
-        <v>-93376.70122982458</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,18 +2819,15 @@
         <v>65255.4981</v>
       </c>
       <c r="G69" t="n">
-        <v>-28121.20312982459</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2826,18 +2849,15 @@
         <v>3457.6028</v>
       </c>
       <c r="G70" t="n">
-        <v>-31578.80592982459</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2859,18 +2879,15 @@
         <v>73521.4344</v>
       </c>
       <c r="G71" t="n">
-        <v>-31578.80592982459</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2892,18 +2909,15 @@
         <v>49952.1338</v>
       </c>
       <c r="G72" t="n">
-        <v>-31578.80592982459</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2925,18 +2939,15 @@
         <v>71553.6737</v>
       </c>
       <c r="G73" t="n">
-        <v>-31578.80592982459</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2958,18 +2969,15 @@
         <v>3643.174</v>
       </c>
       <c r="G74" t="n">
-        <v>-31578.80592982459</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2991,18 +2999,15 @@
         <v>2319.004947019867</v>
       </c>
       <c r="G75" t="n">
-        <v>-31578.80592982459</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3024,18 +3029,15 @@
         <v>20461.054</v>
       </c>
       <c r="G76" t="n">
-        <v>-31578.80592982459</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3057,18 +3059,15 @@
         <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>-31678.80592982459</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3090,18 +3089,15 @@
         <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>-31578.80592982459</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3123,18 +3119,15 @@
         <v>178.8079</v>
       </c>
       <c r="G79" t="n">
-        <v>-31757.61382982459</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3156,18 +3149,15 @@
         <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>-31745.61382982459</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3189,18 +3179,15 @@
         <v>71.1427</v>
       </c>
       <c r="G81" t="n">
-        <v>-31816.75652982459</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3222,18 +3209,15 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3255,18 +3239,15 @@
         <v>2915.2317</v>
       </c>
       <c r="G83" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3288,18 +3269,15 @@
         <v>66.2251655629139</v>
       </c>
       <c r="G84" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3321,18 +3299,15 @@
         <v>20937.011</v>
       </c>
       <c r="G85" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3354,18 +3329,15 @@
         <v>22641.585</v>
       </c>
       <c r="G86" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3387,18 +3359,15 @@
         <v>11797.682</v>
       </c>
       <c r="G87" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3420,18 +3389,15 @@
         <v>351.9536</v>
       </c>
       <c r="G88" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3453,18 +3419,15 @@
         <v>20504.3748</v>
       </c>
       <c r="G89" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3486,18 +3449,15 @@
         <v>166873.5068874172</v>
       </c>
       <c r="G90" t="n">
-        <v>-31805.75652982459</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3519,18 +3479,15 @@
         <v>3010</v>
       </c>
       <c r="G91" t="n">
-        <v>-28795.75652982459</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3552,18 +3509,15 @@
         <v>80688.81570000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-28795.75652982459</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3585,18 +3539,15 @@
         <v>39339.8355</v>
       </c>
       <c r="G93" t="n">
-        <v>-28795.75652982459</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3618,18 +3569,15 @@
         <v>80487.0937</v>
       </c>
       <c r="G94" t="n">
-        <v>-109282.8502298246</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3651,18 +3599,15 @@
         <v>13043.3771</v>
       </c>
       <c r="G95" t="n">
-        <v>-109282.8502298246</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3684,18 +3629,15 @@
         <v>53291.019</v>
       </c>
       <c r="G96" t="n">
-        <v>-109282.8502298246</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3717,18 +3659,15 @@
         <v>156623.2784</v>
       </c>
       <c r="G97" t="n">
-        <v>-109282.8502298246</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3750,18 +3689,15 @@
         <v>38366.9536</v>
       </c>
       <c r="G98" t="n">
-        <v>-109282.8502298246</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3783,18 +3719,15 @@
         <v>669412.549</v>
       </c>
       <c r="G99" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3816,18 +3749,15 @@
         <v>32529</v>
       </c>
       <c r="G100" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3849,18 +3779,15 @@
         <v>11498.381</v>
       </c>
       <c r="G101" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3882,18 +3809,15 @@
         <v>54800</v>
       </c>
       <c r="G102" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3915,18 +3839,15 @@
         <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3948,18 +3869,15 @@
         <v>62831.614</v>
       </c>
       <c r="G104" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3981,18 +3899,15 @@
         <v>4669.527</v>
       </c>
       <c r="G105" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4014,18 +3929,15 @@
         <v>11625</v>
       </c>
       <c r="G106" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4047,18 +3959,15 @@
         <v>101017.6042</v>
       </c>
       <c r="G107" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4080,18 +3989,15 @@
         <v>46339.1103</v>
       </c>
       <c r="G108" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4113,18 +4019,15 @@
         <v>26060.8256</v>
       </c>
       <c r="G109" t="n">
-        <v>560129.6987701755</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4146,18 +4049,15 @@
         <v>2147.0588</v>
       </c>
       <c r="G110" t="n">
-        <v>562276.7575701755</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4179,18 +4079,15 @@
         <v>10000</v>
       </c>
       <c r="G111" t="n">
-        <v>562276.7575701755</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4212,18 +4109,15 @@
         <v>11700</v>
       </c>
       <c r="G112" t="n">
-        <v>550576.7575701755</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4245,18 +4139,15 @@
         <v>50000</v>
       </c>
       <c r="G113" t="n">
-        <v>550576.7575701755</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4278,18 +4169,15 @@
         <v>270107.8947</v>
       </c>
       <c r="G114" t="n">
-        <v>550576.7575701755</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4311,18 +4199,15 @@
         <v>89755.6946</v>
       </c>
       <c r="G115" t="n">
-        <v>640332.4521701755</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4344,18 +4229,15 @@
         <v>71.14279999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>640332.4521701755</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4377,18 +4259,15 @@
         <v>61.7647</v>
       </c>
       <c r="G117" t="n">
-        <v>640394.2168701756</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4410,18 +4289,15 @@
         <v>2408.8572</v>
       </c>
       <c r="G118" t="n">
-        <v>637985.3596701756</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4443,18 +4319,15 @@
         <v>19.95</v>
       </c>
       <c r="G119" t="n">
-        <v>637965.4096701756</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4476,18 +4349,15 @@
         <v>61509.587</v>
       </c>
       <c r="G120" t="n">
-        <v>637965.4096701756</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4509,18 +4379,15 @@
         <v>92659.2095</v>
       </c>
       <c r="G121" t="n">
-        <v>637965.4096701756</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4542,18 +4409,15 @@
         <v>1753.35</v>
       </c>
       <c r="G122" t="n">
-        <v>637965.4096701756</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4575,18 +4439,15 @@
         <v>2143.549</v>
       </c>
       <c r="G123" t="n">
-        <v>637965.4096701756</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
